--- a/biology/Botanique/Plantago_media/Plantago_media.xlsx
+++ b/biology/Botanique/Plantago_media/Plantago_media.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantago media, le plantain moyen, plantain intermédiaire, plantain bâtard, plantain blanc ou langue d'agneau, est une plante herbacée vivace de la famille des Plantaginacées.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Petite plante à racine pivotante et multiples radicelles. Feuilles basales en rosette, ovales-elliptiques, entières, à nervation marquée. La hampe est petite, légèrement pubescente, fragile, portant des fleurs en épis à calice.
-Composants chimiques
-Aucubine, tanin, pectine, acides, sels, gomme, saponine.
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petite plante à racine pivotante et multiples radicelles. Feuilles basales en rosette, ovales-elliptiques, entières, à nervation marquée. La hampe est petite, légèrement pubescente, fragile, portant des fleurs en épis à calice.
 </t>
         </is>
       </c>
@@ -542,14 +557,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Composants chimiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucubine, tanin, pectine, acides, sels, gomme, saponine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plantago_media</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantago_media</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le plantain psyllium (Plantago afra L.), les feuilles jeunes se mangent en salade.
-Pharmacopée
-Usage : dépuratif, astringent, vulnéraire, ophtalmique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plantago_media</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantago_media</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pharmacopée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Usage : dépuratif, astringent, vulnéraire, ophtalmique.
 Les graines sont laxatives par effet mécanique dû au mucilage qu'elles contiennent.
 Depuis l'Antiquité, la plante est considérée comme hémostatique à action rapide sur les blessures. Elle était utilisée également contre la rage de dent et comme collyre sous forme d'eau distillée.
 Les feuilles fraiches écrasées sont utilisées comme cicatrisant et en massage doux sur les piqures de moustiques, guêpe, abeille, frelon ou d'ortie.
@@ -558,31 +647,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Plantago_media</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plantago_media</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Photos</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
